--- a/output/dentist_in_new_york,_usa.xlsx
+++ b/output/dentist_in_new_york,_usa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,7 +514,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Dr.+Tony+Chen,+DDS/@40.7599607,-73.918512,17z/data=!3m1!4b1!4m6!3m5!1s0x89c25f3bf614c8e7:0xbe41a666374c8f8e!8m2!3d40.7599607!4d-73.918512!16s%2Fg%2F1tmqh3jt?authuser=0&amp;hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI0MDkxNS4wIKXMDSoASAFQAw%3D%3D</t>
+          <t>https://www.google.com/maps/place/Dr.+Tony+Chen,+DDS/@40.7599607,-73.918512,17z/data=!3m1!4b1!4m6!3m5!1s0x89c25f3bf614c8e7:0xbe41a666374c8f8e!8m2!3d40.7599607!4d-73.918512!16s%2Fg%2F1tmqh3jt?authuser=0&amp;hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI0MDkxNi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -546,43 +546,43 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Goodman Orthodontics, Dr. Adam Goodman - Manhattan</t>
+          <t>Maiden Lane Dental</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>440 E 57th St, New York, NY 10022, United States</t>
+          <t>80 Maiden Ln #702, New York, NY 10038, United States</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+1 212-688-4663</t>
+          <t>+1 212-509-4585</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http://www.goodortho.com/</t>
+          <t>https://maidenlanedental.com/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Goodman+Orthodontics,+Dr.+Adam+Goodman+-+Manhattan/@40.7575229,-73.9616418,17z/data=!3m1!4b1!4m6!3m5!1s0x89c258e731d7bf6b:0xe713fcef24ca9c01!8m2!3d40.7575229!4d-73.9616418!16s%2Fg%2F1tf16svb?authuser=0&amp;hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI0MDkxNS4wIKXMDSoASAFQAw%3D%3D</t>
+          <t>https://www.google.com/maps/place/Maiden+Lane+Dental/@40.7071307,-74.0077735,17z/data=!3m1!4b1!4m6!3m5!1s0x89c25a17cf5696eb:0xb89b6f2e45251731!8m2!3d40.7071307!4d-74.0077735!16s%2Fg%2F1vhq4ml6?authuser=0&amp;hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI0MDkxNi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>40.7575229</t>
+          <t>40.7071307</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-73.9616418</t>
+          <t>-74.0077735</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>339</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Orthodontist</t>
+          <t>Cosmetic dentist</t>
         </is>
       </c>
     </row>
@@ -620,7 +620,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Lumia+Dental+PLLC/@40.709372,-74.009975,17z/data=!3m1!4b1!4m6!3m5!1s0x89c25a177daecb33:0xcf4cc81c33ca9911!8m2!3d40.709372!4d-74.009975!16s%2Fg%2F11hb7t2jkr?authuser=0&amp;hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI0MDkxNS4wIKXMDSoASAFQAw%3D%3D</t>
+          <t>https://www.google.com/maps/place/Lumia+Dental+PLLC/@40.709372,-74.009975,17z/data=!3m1!4b1!4m6!3m5!1s0x89c25a177daecb33:0xcf4cc81c33ca9911!8m2!3d40.709372!4d-74.009975!16s%2Fg%2F11hb7t2jkr?authuser=0&amp;hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI0MDkxNi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/209+NYC+Dental/@40.7594146,-73.9671025,17z/data=!3m1!4b1!4m6!3m5!1s0x89c258e446e4e16f:0x278f5e2c13ac9a17!8m2!3d40.7594146!4d-73.9671025!16s%2Fg%2F1thqbs3j?authuser=0&amp;hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI0MDkxNS4wIKXMDSoASAFQAw%3D%3D</t>
+          <t>https://www.google.com/maps/place/209+NYC+Dental/@40.7594146,-73.9671025,17z/data=!3m1!4b1!4m6!3m5!1s0x89c258e446e4e16f:0x278f5e2c13ac9a17!8m2!3d40.7594146!4d-73.9671025!16s%2Fg%2F1thqbs3j?authuser=0&amp;hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI0MDkxNi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -697,218 +697,6 @@
         </is>
       </c>
       <c r="K5" t="inlineStr">
-        <is>
-          <t>Dentist</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>New York General Dentistry</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>133 E 58th St Ste 409, New York, NY 10022, United States</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>+1 212-838-0842</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://newyorkgeneraldentistry.com/?utm_source=GMBlisting&amp;utm_medium=organic</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/New+York+General+Dentistry/@40.7619525,-73.9689326,17z/data=!3m1!4b1!4m6!3m5!1s0x89c258e5a66f638f:0x4f9c91e71b92d9f9!8m2!3d40.7619525!4d-73.9689326!16s%2Fg%2F1tgny3v1?authuser=0&amp;hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI0MDkxNS4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>40.7619525</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>-73.9689326</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>323</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Dental clinic</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>New York Dental Office</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>245 E 63rd St #110, New York, NY 10065, United States</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>+1 212-548-3261</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://www.newyorkdentaloffice.com/</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/New+York+Dental+Office/@40.7633351,-73.9627181,17z/data=!3m1!4b1!4m6!3m5!1s0x89c258e88b4e0167:0x9c508f23a2d16155!8m2!3d40.7633351!4d-73.9627181!16s%2Fg%2F1ptw8sq8y?authuser=0&amp;hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI0MDkxNS4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>40.7633351</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>-73.9627181</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>355</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Dentist</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Diamond District Dental NYC</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>10 W 46th St #1401, New York, NY 10036, United States</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>+1 212-759-5595</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://www.dddentalnyc.com/</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Diamond+District+Dental+NYC/@40.7562341,-73.980048,17z/data=!3m1!4b1!4m6!3m5!1s0x89c258e4ed67c03b:0x552a45e0a6609cc1!8m2!3d40.7562341!4d-73.980048!16s%2Fg%2F1tdw8zvt?authuser=0&amp;hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI0MDkxNS4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>40.7562341</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>-73.980048</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>534</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Dentist</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Central Park West Dental</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>101 Central Park W # 1d, New York, NY 10023, United States</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>+1 212-877-0405</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://www.centralparkwestdental.com/</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Central+Park+West+Dental/@40.7753983,-73.9769193,17z/data=!3m1!4b1!4m6!3m5!1s0x89c2588c9f3c6df3:0xbea56bf49f72f638!8m2!3d40.7753983!4d-73.9769193!16s%2Fg%2F119vc8wqh?authuser=0&amp;hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI0MDkxNS4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>40.7753983</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>-73.9769193</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>229</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>Dentist</t>
         </is>
